--- a/output.xlsx
+++ b/output.xlsx
@@ -2390,7 +2390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2019-08-04T22:33:42Z</t>
+          <t>2019-08-06T03:41:47Z</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2553,7 +2553,7 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>{'sent': 3749, 'recv': 257353}</t>
+          <t>{'sent': 296, 'recv': 727}</t>
         </is>
       </c>
     </row>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2019-08-04T23:03:38Z</t>
+          <t>2019-08-06T03:54:09Z</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>{'sent': 1765, 'recv': 337}</t>
+          <t>{'sent': 1781, 'recv': 350}</t>
         </is>
       </c>
     </row>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2019-08-04T19:08:06Z</t>
+          <t>2019-08-05T18:59:54Z</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2693,7 +2693,7 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'sent': 33186, 'recv': 667492}</t>
+          <t>{'sent': 12928, 'recv': 166749}</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Galaxy-S6-edge</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2019-08-04T23:03:47Z</t>
+          <t>2019-08-06T03:47:49Z</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -2765,7 +2765,7 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'sent': 21120, 'recv': 695654}</t>
+          <t>{'sent': 12166, 'recv': 350785}</t>
         </is>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2019-08-04T08:58:39Z</t>
+          <t>2019-08-05T07:30:14Z</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -2837,7 +2837,7 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'sent': 564, 'recv': 9577}</t>
+          <t>{'sent': 2741, 'recv': 228418}</t>
         </is>
       </c>
     </row>
@@ -2847,44 +2847,44 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>kde8758</t>
+          <t>k25c815</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>cc:78:5f:e3:4b:de</t>
+          <t>24:4b:81:d0:ab:7d</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Annas-iPad</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.222.135.88</t>
+          <t>10.37.200.21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2019-07-26T21:00:16Z</t>
+          <t>2019-07-26T12:45:25Z</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2019-08-04T11:04:15Z</t>
+          <t>2019-08-06T03:53:48Z</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Apple iPad</t>
+          <t>Android</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -2909,7 +2909,7 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'sent': 8415, 'recv': 656011}</t>
+          <t>{'sent': 4830, 'recv': 99859}</t>
         </is>
       </c>
     </row>
@@ -2919,12 +2919,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>k25c815</t>
+          <t>k2ca07a</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>24:4b:81:d0:ab:7d</t>
+          <t>c8:c2:fa:e4:8b:8d</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2934,24 +2934,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.37.200.21</t>
+          <t>10.44.160.122</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2019-07-26T12:45:25Z</t>
+          <t>2019-07-26T11:53:24Z</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2019-08-04T23:02:09Z</t>
+          <t>2019-08-06T03:53:48Z</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Huawei Technologies</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2981,7 +2981,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'sent': 3636, 'recv': 47676}</t>
+          <t>{'sent': 110887, 'recv': 10769632}</t>
         </is>
       </c>
     </row>
@@ -2991,137 +2991,65 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>k2ca07a</t>
+          <t>k082e59</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>c8:c2:fa:e4:8b:8d</t>
+          <t>0c:9d:92:20:1c:04</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>jamie-System-Product-Name</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.44.160.122</t>
+          <t>192.168.200.2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2019-07-26T11:53:24Z</t>
+          <t>2019-07-26T05:10:07Z</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2019-08-04T23:02:09Z</t>
+          <t>2019-08-06T03:54:09Z</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Huawei Technologies</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Android</t>
-        </is>
-      </c>
+          <t>ASUS</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Q2PD-V2GU-MUCS</t>
+          <t>Q2BX-V96B-2ECY</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>ac:17:c8:11:be:bd</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>donut</t>
-        </is>
-      </c>
+          <t>34:56:fe:2d:63:04</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'sent': 50334, 'recv': 2080626}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>k082e59</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0c:9d:92:20:1c:04</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>jamie-System-Product-Name</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>192.168.200.2</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2019-07-26T05:10:07Z</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2019-08-04T22:59:12Z</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>ASUS</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Q2BX-V96B-2ECY</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>34:56:fe:2d:63:04</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
-        <v>200</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>{'sent': 27, 'recv': 3}</t>
+          <t>{'sent': 6, 'recv': 0}</t>
         </is>
       </c>
     </row>
